--- a/demoW36_generate.xlsx
+++ b/demoW36_generate.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="55">
   <si>
     <t>Executive Director Review Agenda ---- Week 36</t>
   </si>
@@ -49,52 +49,136 @@
     <t>09:00</t>
   </si>
   <si>
+    <t>5 min</t>
+  </si>
+  <si>
+    <t>Avenir 2.0</t>
+  </si>
+  <si>
+    <t>Advance Design</t>
+  </si>
+  <si>
+    <t>Pre-Simcoe</t>
+  </si>
+  <si>
+    <t>任振涛 Zhentao Ren</t>
+  </si>
+  <si>
+    <t>EVC</t>
+  </si>
+  <si>
+    <t>09:05</t>
+  </si>
+  <si>
     <t>10 min</t>
   </si>
   <si>
-    <t>JCQC NA Math</t>
-  </si>
-  <si>
-    <t>Advance Design</t>
-  </si>
-  <si>
-    <t>Math Update</t>
-  </si>
-  <si>
-    <t>Zhentao Ren</t>
-  </si>
-  <si>
-    <t>Mini EVC</t>
-  </si>
-  <si>
-    <t>09:05</t>
+    <t>2020 Show Car Plan</t>
+  </si>
+  <si>
+    <t>夏晟Sheng Xia</t>
   </si>
   <si>
     <t>09:15</t>
   </si>
   <si>
+    <t>Face of Buick-Exterior</t>
+  </si>
+  <si>
+    <t>Exterior</t>
+  </si>
+  <si>
+    <t>邹华 Hua Zou</t>
+  </si>
+  <si>
     <t>09:25</t>
   </si>
   <si>
+    <t>15 min</t>
+  </si>
+  <si>
+    <t>BEV3 Theme Pre-Simcoe Review</t>
+  </si>
+  <si>
+    <t>李洋 Yang Li</t>
+  </si>
+  <si>
     <t>09:40</t>
   </si>
   <si>
+    <t>JCQB  F/S Model and Clinic Stimuli</t>
+  </si>
+  <si>
+    <t>Model Update</t>
+  </si>
+  <si>
+    <t>郭大伟 Dawei Guo</t>
+  </si>
+  <si>
+    <t>Studio 2</t>
+  </si>
+  <si>
     <t>09:50</t>
   </si>
   <si>
+    <t>E2LB-2 Scale Model</t>
+  </si>
+  <si>
+    <t>李久稳 Jiuwen Li</t>
+  </si>
+  <si>
     <t>10:00</t>
   </si>
   <si>
+    <t>BEV3 Interior Scale Model</t>
+  </si>
+  <si>
+    <t>Interior</t>
+  </si>
+  <si>
+    <t>邢朔 Shuo Xing</t>
+  </si>
+  <si>
+    <t>Studio 1</t>
+  </si>
+  <si>
     <t>10:10</t>
   </si>
   <si>
+    <t>Face of Buick-Interior</t>
+  </si>
+  <si>
     <t>10:15</t>
   </si>
   <si>
+    <t>358 Design Update</t>
+  </si>
+  <si>
+    <t>Design Update</t>
+  </si>
+  <si>
+    <t>朱义莹 Yiying Zhu</t>
+  </si>
+  <si>
     <t>10:25</t>
   </si>
   <si>
+    <t>E2LB-2 Interior Design Update</t>
+  </si>
+  <si>
     <t>10:40</t>
+  </si>
+  <si>
+    <t>手动输入</t>
+  </si>
+  <si>
+    <t>K256 MCM C&amp;T Design Update</t>
+  </si>
+  <si>
+    <t>CTA</t>
+  </si>
+  <si>
+    <t>倪旻霁 Minji Ni</t>
   </si>
 </sst>
 </file>
@@ -496,7 +580,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -635,6 +719,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="43">
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0">
@@ -765,7 +864,7 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -794,6 +893,13 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="12" fillId="0" fontId="21" numFmtId="20" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="12" fillId="0" fontId="21" numFmtId="20" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="12" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -1167,76 +1273,256 @@
       </c>
     </row>
     <row customHeight="1" ht="33" r="5" s="9" spans="1:7">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="10" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" t="s">
+      <c r="A6" s="12" t="s">
         <v>17</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" t="s">
+      <c r="A7" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="12" t="s">
         <v>18</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" t="s">
-        <v>19</v>
+      <c r="A8" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" t="s">
-        <v>20</v>
+      <c r="A9" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" t="s">
-        <v>21</v>
+      <c r="A10" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" t="s">
-        <v>22</v>
+      <c r="A11" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" t="s">
-        <v>23</v>
+      <c r="A12" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" t="s">
-        <v>24</v>
+      <c r="A13" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" t="s">
-        <v>25</v>
+      <c r="A14" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" t="s">
-        <v>26</v>
+      <c r="A15" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/demoW36_generate.xlsx
+++ b/demoW36_generate.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="7695" windowWidth="20490" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Task (2)" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Task (2)" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
